--- a/TestData/Follo_WebApp_Datas.xlsx
+++ b/TestData/Follo_WebApp_Datas.xlsx
@@ -118,7 +118,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>followebfullrun005@yopmail.com</t>
+    <t>followebfullrun007@yopmail.com</t>
   </si>
   <si>
     <t>Phone Code</t>
@@ -130,7 +130,7 @@
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>9848546915</t>
+    <t>9848546917</t>
   </si>
   <si>
     <t>First Name</t>
@@ -285,10 +285,10 @@
     <t>Select Project</t>
   </si>
   <si>
-    <t>followebfullrun003@yopmail.com</t>
-  </si>
-  <si>
-    <t>6r#qi35a4@</t>
+    <t>followebfullrun005@yopmail.com</t>
+  </si>
+  <si>
+    <t>6d265@zux!</t>
   </si>
   <si>
     <t>sprintcomplet</t>
@@ -1031,10 +1031,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1128,8 +1128,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1143,14 +1173,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -1160,36 +1182,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1205,7 +1205,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1222,14 +1230,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1283,13 +1283,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,25 +1313,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1337,31 +1325,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,61 +1379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,7 +1397,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,7 +1439,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,11 +1512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1531,21 +1537,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1566,15 +1557,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1586,6 +1568,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,7 +1612,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1633,127 +1633,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1801,7 +1801,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1874,6 +1873,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2242,7 +2242,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -2274,7 +2274,7 @@
       <c r="A3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       <c r="A4" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
       <c r="A5" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2492,7 +2492,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1" display="https://www.edureka.co/community/1579/verifying-whether-element-present-visible-selenium-webdriver"/>
-    <hyperlink ref="B1" r:id="rId2" display="followebfullrun005@yopmail.com" tooltip="mailto:followebfullrun005@yopmail.com"/>
+    <hyperlink ref="B1" r:id="rId2" display="followebfullrun007@yopmail.com" tooltip="mailto:followebfullrun007@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2514,12 +2514,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2574,12 +2574,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2606,21 +2606,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -2628,10 +2628,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -2639,10 +2639,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -2675,12 +2675,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2711,30 +2711,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>3</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="32">
         <v>2</v>
       </c>
-      <c r="D2" s="33">
+      <c r="D2" s="32">
         <v>4</v>
       </c>
     </row>
@@ -2761,19 +2761,19 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="31" t="s">
         <v>112</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="followebfullrun003@yopmail.com" tooltip="mailto:followebfullrun003@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId1" display="followebfullrun005@yopmail.com" tooltip="mailto:followebfullrun005@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2818,12 +2818,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2896,10 +2896,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2965,24 +2965,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.6181818181818" style="42" customWidth="1"/>
-    <col min="2" max="2" width="18.0181818181818" style="42" customWidth="1"/>
+    <col min="1" max="1" width="28.6181818181818" style="41" customWidth="1"/>
+    <col min="2" max="2" width="18.0181818181818" style="41" customWidth="1"/>
     <col min="3" max="3" width="15.0181818181818" customWidth="1"/>
     <col min="4" max="4" width="16.1272727272727" customWidth="1"/>
     <col min="5" max="5" width="30.3454545454545" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="42" t="s">
         <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -2993,7 +2993,7 @@
       <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="43" t="s">
         <v>57</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -3009,7 +3009,7 @@
     <row r="5" spans="2:2">
       <c r="B5" s="44"/>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" ht="43.5" spans="3:3">
       <c r="C6" s="6" t="s">
         <v>60</v>
       </c>
@@ -3042,11 +3042,11 @@
     <hyperlink ref="C10" r:id="rId3" display="v@8w4h7@l1"/>
     <hyperlink ref="E8" r:id="rId4" display="5p2##69cjf" tooltip="mailto:v@8w4h7@l13"/>
     <hyperlink ref="E7" r:id="rId5" display="sprint7cc001@yopmail.com" tooltip="mailto:sprint7cc001@yopmail.com"/>
-    <hyperlink ref="A2" r:id="rId6" display="followebfullrun003@yopmail.com" tooltip="mailto:followebfullrun003@yopmail.com"/>
-    <hyperlink ref="B2" r:id="rId2" display="6r#qi35a4@"/>
+    <hyperlink ref="A2" r:id="rId6" display="followebfullrun005@yopmail.com" tooltip="mailto:followebfullrun005@yopmail.com"/>
     <hyperlink ref="C2" r:id="rId1" display="sprintcomplet" tooltip="mailto:sprintcomplete004@yopmail.com"/>
     <hyperlink ref="D2" r:id="rId2" display="VGVGVHVHV"/>
     <hyperlink ref="E2" r:id="rId2" display="Automation Testing"/>
+    <hyperlink ref="B2" r:id="rId7" display="6d265@zux!"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3068,7 +3068,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3104,13 +3104,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3121,7 +3121,7 @@
       <c r="B2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3132,7 +3132,7 @@
       <c r="B3" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3143,7 +3143,7 @@
       <c r="B4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3176,16 +3176,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3196,10 +3196,10 @@
       <c r="B2" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3227,7 +3227,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3257,7 +3257,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3287,7 +3287,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3408,10 +3408,10 @@
       <c r="H2" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>80</v>
       </c>
       <c r="K2" s="11" t="s">
@@ -3464,10 +3464,10 @@
       <c r="H3" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>80</v>
       </c>
       <c r="K3" s="11" t="s">
@@ -3520,10 +3520,10 @@
       <c r="H4" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>80</v>
       </c>
       <c r="K4" s="11" t="s">
@@ -3722,10 +3722,10 @@
       <c r="K2" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>80</v>
       </c>
       <c r="N2" s="11" t="s">
@@ -3793,7 +3793,7 @@
       <c r="B2" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3814,14 +3814,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.54545454545455" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="19.3636363636364" style="38" customWidth="1"/>
-    <col min="2" max="2" width="19.0909090909091" style="38" customWidth="1"/>
-    <col min="3" max="3" width="11.1818181818182" style="38" customWidth="1"/>
-    <col min="4" max="16370" width="5.54545454545455" style="38" customWidth="1"/>
-    <col min="16371" max="16384" width="5.54545454545455" style="38"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="41" customFormat="1" spans="1:2">
+    <col min="1" max="1" width="19.3636363636364" style="37" customWidth="1"/>
+    <col min="2" max="2" width="19.0909090909091" style="37" customWidth="1"/>
+    <col min="3" max="3" width="11.1818181818182" style="37" customWidth="1"/>
+    <col min="4" max="16370" width="5.54545454545455" style="37" customWidth="1"/>
+    <col min="16371" max="16384" width="5.54545454545455" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="40" customFormat="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>65</v>
       </c>
@@ -3830,26 +3830,26 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       <c r="C2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4268,12 +4268,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4370,10 +4370,10 @@
       <c r="F2" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>80</v>
       </c>
       <c r="I2" s="11" t="s">
@@ -4420,10 +4420,10 @@
       <c r="F3" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>80</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -4579,10 +4579,10 @@
       <c r="G2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>80</v>
       </c>
       <c r="J2" s="11" t="s">
@@ -4830,7 +4830,7 @@
       <c r="A2" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>186</v>
       </c>
     </row>
@@ -4872,16 +4872,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>76</v>
       </c>
     </row>
@@ -4949,10 +4949,10 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>195</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -4985,7 +4985,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5045,7 +5045,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5131,10 +5131,10 @@
       </c>
     </row>
     <row r="2" ht="43.5" spans="1:19">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>195</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -5158,10 +5158,10 @@
       <c r="I2" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="21" t="s">
         <v>201</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>202</v>
       </c>
       <c r="L2" s="11" t="s">
@@ -5556,7 +5556,7 @@
       <c r="B2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -5603,7 +5603,7 @@
       <c r="B3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -5660,24 +5660,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="15.8181818181818" style="39" customWidth="1"/>
-    <col min="2" max="2" width="17.5454545454545" style="39" customWidth="1"/>
-    <col min="3" max="16384" width="8.72727272727273" style="39"/>
+    <col min="1" max="1" width="15.8181818181818" style="38" customWidth="1"/>
+    <col min="2" max="2" width="17.5454545454545" style="38" customWidth="1"/>
+    <col min="3" max="16384" width="8.72727272727273" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" s="38" customFormat="1" spans="1:2">
-      <c r="A2" s="40" t="s">
+    <row r="2" s="37" customFormat="1" spans="1:2">
+      <c r="A2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5756,7 +5756,7 @@
       <c r="B2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -5933,7 +5933,7 @@
       <c r="E2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="13" t="s">
@@ -6233,7 +6233,7 @@
       <c r="C2" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="23" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6307,130 +6307,130 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:10">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:10">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" ht="29" spans="1:10">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="36" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" ht="29" spans="1:10">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="36" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       <c r="B2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -6557,7 +6557,7 @@
       <c r="B3" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -6707,7 +6707,7 @@
       <c r="E2" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -6958,7 +6958,7 @@
       <c r="A2" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6983,12 +6983,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="28" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7082,7 +7082,7 @@
       <c r="D2" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
@@ -7119,25 +7119,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>24</v>
       </c>
     </row>
@@ -7145,22 +7145,22 @@
       <c r="A2" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -7187,21 +7187,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -7241,13 +7241,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7258,7 +7258,7 @@
       <c r="B2" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="5" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7302,7 +7302,7 @@
       <c r="A2" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="5" t="s">
         <v>240</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -7750,48 +7750,48 @@
   </cols>
   <sheetData>
     <row r="1" ht="29" spans="1:11">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:11">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -7806,13 +7806,13 @@
       <c r="G2" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>97</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="J2" s="34" t="s">
         <v>85</v>
       </c>
       <c r="K2" s="14" t="s">

--- a/TestData/Follo_WebApp_Datas.xlsx
+++ b/TestData/Follo_WebApp_Datas.xlsx
@@ -113,12 +113,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="304">
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>followebfullrun007@yopmail.com</t>
+    <t>followebfullrun012@yopmail.com</t>
   </si>
   <si>
     <t>Phone Code</t>
@@ -130,7 +130,7 @@
     <t>Mobile Number</t>
   </si>
   <si>
-    <t>9848546917</t>
+    <t>8848546912</t>
   </si>
   <si>
     <t>First Name</t>
@@ -285,169 +285,172 @@
     <t>Select Project</t>
   </si>
   <si>
+    <t>followebfullrun010@yopmail.com</t>
+  </si>
+  <si>
+    <t>j8365f#!uv</t>
+  </si>
+  <si>
+    <t>sprintcomplet</t>
+  </si>
+  <si>
+    <t>VGVGVHVHV</t>
+  </si>
+  <si>
+    <t>sprintcomplete004@yopmail.com</t>
+  </si>
+  <si>
+    <t>_yf2jh78@2</t>
+  </si>
+  <si>
+    <t>sprint7cc001@yopmail.com</t>
+  </si>
+  <si>
+    <t>5p2##69cjf</t>
+  </si>
+  <si>
+    <t>v@8w4h7@l1</t>
+  </si>
+  <si>
+    <t>Spec</t>
+  </si>
+  <si>
+    <t>DFOW</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>New Spec</t>
+  </si>
+  <si>
+    <t>New DFOW</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Additional Notes </t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>OMR</t>
+  </si>
+  <si>
+    <t>Thiruvnmyur</t>
+  </si>
+  <si>
+    <t>Tamilnadu</t>
+  </si>
+  <si>
+    <t>600015</t>
+  </si>
+  <si>
+    <t>https://yopmail.com/en/wm</t>
+  </si>
+  <si>
+    <t>MNC company</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>600016</t>
+  </si>
+  <si>
+    <t>https://test.folloit.com/companies</t>
+  </si>
+  <si>
+    <t>Siccors</t>
+  </si>
+  <si>
+    <t>600017</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Company Name To Edit</t>
+  </si>
+  <si>
+    <t>Siccors delete</t>
+  </si>
+  <si>
+    <t>Anna nagar</t>
+  </si>
+  <si>
+    <t>Second street</t>
+  </si>
+  <si>
+    <t>628888</t>
+  </si>
+  <si>
+    <t>Civil</t>
+  </si>
+  <si>
+    <t>Members Inivite</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>sprintregrun001@optisolbusiness.com</t>
+  </si>
+  <si>
+    <t>Project Admin</t>
+  </si>
+  <si>
+    <t>sprintregrun002@optisolbusiness.com</t>
+  </si>
+  <si>
+    <t>General Contractor</t>
+  </si>
+  <si>
+    <t>sprintregrun003@optisolbusiness.com</t>
+  </si>
+  <si>
+    <t>Sub Contractor</t>
+  </si>
+  <si>
+    <t>Search Members</t>
+  </si>
+  <si>
+    <t>Filter Roles</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Edit Members</t>
+  </si>
+  <si>
     <t>followebfullrun005@yopmail.com</t>
-  </si>
-  <si>
-    <t>6d265@zux!</t>
-  </si>
-  <si>
-    <t>sprintcomplet</t>
-  </si>
-  <si>
-    <t>VGVGVHVHV</t>
-  </si>
-  <si>
-    <t>sprintcomplete004@yopmail.com</t>
-  </si>
-  <si>
-    <t>_yf2jh78@2</t>
-  </si>
-  <si>
-    <t>sprint7cc001@yopmail.com</t>
-  </si>
-  <si>
-    <t>5p2##69cjf</t>
-  </si>
-  <si>
-    <t>v@8w4h7@l1</t>
-  </si>
-  <si>
-    <t>Spec</t>
-  </si>
-  <si>
-    <t>DFOW</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Heat</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>New Spec</t>
-  </si>
-  <si>
-    <t>New DFOW</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Address Line 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Additional Notes </t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>OMR</t>
-  </si>
-  <si>
-    <t>Thiruvnmyur</t>
-  </si>
-  <si>
-    <t>Tamilnadu</t>
-  </si>
-  <si>
-    <t>600015</t>
-  </si>
-  <si>
-    <t>https://yopmail.com/en/wm</t>
-  </si>
-  <si>
-    <t>MNC company</t>
-  </si>
-  <si>
-    <t>Paper</t>
-  </si>
-  <si>
-    <t>600016</t>
-  </si>
-  <si>
-    <t>https://test.folloit.com/companies</t>
-  </si>
-  <si>
-    <t>Siccors</t>
-  </si>
-  <si>
-    <t>600017</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Company Name To Edit</t>
-  </si>
-  <si>
-    <t>Siccors delete</t>
-  </si>
-  <si>
-    <t>Anna nagar</t>
-  </si>
-  <si>
-    <t>Second street</t>
-  </si>
-  <si>
-    <t>628888</t>
-  </si>
-  <si>
-    <t>Civil</t>
-  </si>
-  <si>
-    <t>Members Inivite</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>sprintregrun001@optisolbusiness.com</t>
-  </si>
-  <si>
-    <t>Project Admin</t>
-  </si>
-  <si>
-    <t>sprintregrun002@optisolbusiness.com</t>
-  </si>
-  <si>
-    <t>General Contractor</t>
-  </si>
-  <si>
-    <t>sprintregrun003@optisolbusiness.com</t>
-  </si>
-  <si>
-    <t>Sub Contractor</t>
-  </si>
-  <si>
-    <t>Search Members</t>
-  </si>
-  <si>
-    <t>Filter Roles</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Edit Members</t>
   </si>
   <si>
     <t>Regression</t>
@@ -1032,8 +1035,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
@@ -1128,23 +1131,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1152,6 +1147,36 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1166,30 +1191,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1205,7 +1214,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1213,30 +1222,23 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1249,8 +1251,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1283,7 +1286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,7 +1298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1307,7 +1316,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1319,7 +1352,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,25 +1430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1361,61 +1448,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1427,37 +1460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1512,47 +1515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,7 +1543,52 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1585,7 +1597,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1600,27 +1612,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1633,127 +1636,127 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1873,7 +1876,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2242,7 +2245,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -2492,7 +2495,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1" display="https://www.edureka.co/community/1579/verifying-whether-element-present-visible-selenium-webdriver"/>
-    <hyperlink ref="B1" r:id="rId2" display="followebfullrun007@yopmail.com" tooltip="mailto:followebfullrun007@yopmail.com"/>
+    <hyperlink ref="B1" r:id="rId2" display="followebfullrun012@yopmail.com" tooltip="mailto:followebfullrun012@yopmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2545,7 +2548,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2779,10 +2782,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>9</v>
@@ -2791,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2822,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2852,22 +2855,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2897,18 +2900,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2937,12 +2940,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2960,7 +2963,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="4"/>
@@ -3042,11 +3045,11 @@
     <hyperlink ref="C10" r:id="rId3" display="v@8w4h7@l1"/>
     <hyperlink ref="E8" r:id="rId4" display="5p2##69cjf" tooltip="mailto:v@8w4h7@l13"/>
     <hyperlink ref="E7" r:id="rId5" display="sprint7cc001@yopmail.com" tooltip="mailto:sprint7cc001@yopmail.com"/>
-    <hyperlink ref="A2" r:id="rId6" display="followebfullrun005@yopmail.com" tooltip="mailto:followebfullrun005@yopmail.com"/>
+    <hyperlink ref="A2" r:id="rId6" display="followebfullrun010@yopmail.com" tooltip="mailto:followebfullrun010@yopmail.com"/>
     <hyperlink ref="C2" r:id="rId1" display="sprintcomplet" tooltip="mailto:sprintcomplete004@yopmail.com"/>
     <hyperlink ref="D2" r:id="rId2" display="VGVGVHVHV"/>
     <hyperlink ref="E2" r:id="rId2" display="Automation Testing"/>
-    <hyperlink ref="B2" r:id="rId7" display="6d265@zux!"/>
+    <hyperlink ref="B2" r:id="rId7" display="j8365f#!uv"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3069,12 +3072,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3105,46 +3108,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3177,30 +3180,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" ht="39" customHeight="1" spans="1:4">
       <c r="A2" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -3228,12 +3231,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3258,12 +3261,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3288,12 +3291,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3329,28 +3332,28 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>66</v>
@@ -3359,54 +3362,54 @@
         <v>92</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="Q1" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>68</v>
@@ -3415,25 +3418,25 @@
         <v>80</v>
       </c>
       <c r="K2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="N2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="O2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="P2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>21</v>
@@ -3441,28 +3444,28 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="9" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>47</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>68</v>
@@ -3471,54 +3474,54 @@
         <v>80</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="O3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="N3" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="P3" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I4" s="21" t="s">
         <v>68</v>
@@ -3527,28 +3530,28 @@
         <v>80</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="P4" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3578,24 +3581,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>170</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3625,37 +3628,37 @@
   <sheetData>
     <row r="1" ht="29" spans="1:21">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>140</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>66</v>
@@ -3664,63 +3667,63 @@
         <v>92</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="S1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="S1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="T1" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>169</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L2" s="21" t="s">
         <v>68</v>
@@ -3729,28 +3732,28 @@
         <v>80</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3777,10 +3780,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>14</v>
@@ -3788,10 +3791,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>155</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>154</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>80</v>
@@ -3876,24 +3879,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>154</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3920,241 +3923,241 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
+      <c r="C1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="26.0909090909091" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
       <c r="B1" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="29" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:3">
+      <c r="A2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" ht="29" spans="1:3">
+      <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:3">
+      <c r="A2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="14.7272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" spans="1:4">
+      <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="29" spans="1:4">
       <c r="A2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>154</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>152</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="26.0909090909091" customWidth="1"/>
+    <col min="3" max="3" width="22.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>154</v>
-      </c>
       <c r="C2" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" ht="29" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
-  <sheetData>
-    <row r="1" ht="29" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" ht="29" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="4" max="4" width="14.7272727272727" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="29" spans="1:4">
-      <c r="A1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" ht="29" spans="1:4">
-      <c r="A2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="2"/>
-  <cols>
-    <col min="3" max="3" width="22.9090909090909" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4179,12 +4182,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4209,12 +4212,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4239,12 +4242,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4303,22 +4306,22 @@
   <sheetData>
     <row r="1" ht="29" spans="1:16">
       <c r="A1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>66</v>
@@ -4327,48 +4330,48 @@
         <v>92</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="M1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="O1" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:16">
       <c r="A2" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>68</v>
@@ -4377,25 +4380,25 @@
         <v>80</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="N2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>21</v>
@@ -4403,22 +4406,22 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>68</v>
@@ -4427,28 +4430,28 @@
         <v>80</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="L3" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="N3" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="P3" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4473,12 +4476,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4506,25 +4509,25 @@
   <sheetData>
     <row r="1" ht="29" spans="1:17">
       <c r="A1" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>66</v>
@@ -4533,51 +4536,51 @@
         <v>92</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="P1" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>68</v>
@@ -4586,28 +4589,28 @@
         <v>80</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4632,12 +4635,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4662,12 +4665,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4696,134 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="13.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="13.8181818181818" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="16.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
+    <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>184</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>184</v>
@@ -4701,137 +4831,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="13.8181818181818" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="13.8181818181818" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="16.5454545454545" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="17.3636363636364" customWidth="1"/>
-    <col min="2" max="2" width="12.6363636363636" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="29" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4907,12 +4910,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4939,24 +4942,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4981,12 +4984,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5011,12 +5014,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="15" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5041,12 +5044,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -5073,31 +5076,31 @@
   <sheetData>
     <row r="1" ht="29" spans="1:19">
       <c r="A1" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J1" s="10" t="s">
         <v>66</v>
@@ -5106,87 +5109,87 @@
         <v>92</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="R1" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" ht="43.5" spans="1:19">
       <c r="A2" s="24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J2" s="21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -5217,90 +5220,90 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="I1" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="H2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5327,24 +5330,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -5377,108 +5380,108 @@
   <sheetData>
     <row r="1" ht="29" spans="1:17">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="L1" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q2" s="13" t="s">
         <v>216</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="P2" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q2" s="13" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5504,7 +5507,7 @@
   <sheetData>
     <row r="1" ht="29" spans="1:15">
       <c r="A1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>92</v>
@@ -5513,45 +5516,45 @@
         <v>66</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="K1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:15">
       <c r="A2" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>80</v>
@@ -5560,45 +5563,45 @@
         <v>68</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="J2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>80</v>
@@ -5607,40 +5610,40 @@
         <v>68</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="J3" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5704,7 +5707,7 @@
   <sheetData>
     <row r="1" ht="29" spans="1:15">
       <c r="A1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>92</v>
@@ -5713,45 +5716,45 @@
         <v>66</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="K1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:15">
       <c r="A2" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>80</v>
@@ -5760,40 +5763,40 @@
         <v>68</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="J2" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5819,24 +5822,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5863,16 +5866,16 @@
   <sheetData>
     <row r="1" ht="29" spans="1:18">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>92</v>
@@ -5881,54 +5884,54 @@
         <v>66</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="N1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:18">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>80</v>
@@ -5937,40 +5940,40 @@
         <v>68</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="M2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N2" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5992,24 +5995,24 @@
   <sheetData>
     <row r="1" ht="29" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -6036,24 +6039,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6079,30 +6082,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -6127,24 +6130,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6169,24 +6172,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6211,30 +6214,30 @@
   <sheetData>
     <row r="1" ht="29" spans="1:4">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:4">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -6260,24 +6263,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6458,7 +6461,7 @@
   <sheetData>
     <row r="1" ht="43.5" spans="1:15">
       <c r="A1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>92</v>
@@ -6467,143 +6470,284 @@
         <v>66</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F1" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" ht="29" spans="1:15">
+      <c r="A2" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" ht="29" spans="1:15">
+      <c r="A3" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.5454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <sheetData>
+    <row r="1" ht="43.5" spans="1:15">
+      <c r="A1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>149</v>
       </c>
       <c r="M1" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>139</v>
-      </c>
       <c r="O1" s="10" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:15">
       <c r="A2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="K2" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" ht="29" spans="1:15">
-      <c r="A3" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="N2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A2"/>
@@ -6614,167 +6758,123 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="19.5454545454545" customWidth="1"/>
+    <col min="1" max="1" width="15.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="15.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="22.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="19.9090909090909" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <sheetData>
-    <row r="1" ht="43.5" spans="1:15">
-      <c r="A1" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" ht="29" spans="1:15">
-      <c r="A2" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="15.4545454545455" customWidth="1"/>
+  <cols>
+    <col min="1" max="1" width="22.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="A2" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A2"/>
@@ -6785,43 +6885,73 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="15.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="22.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="20.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="22.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="19.9090909090909" customWidth="1"/>
+    <col min="1" max="1" width="15.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>184</v>
@@ -6829,137 +6959,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="22.7272727272727" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="22.7272727272727" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="20.1818181818182" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="15.9090909090909" customWidth="1"/>
-    <col min="2" max="2" width="21.7272727272727" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -7014,12 +7017,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -7048,45 +7051,45 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
       <c r="A1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>66</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>21</v>
@@ -7143,7 +7146,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>68</v>
@@ -7199,7 +7202,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>80</v>
@@ -7242,24 +7245,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -7289,24 +7292,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -7335,114 +7338,114 @@
   <sheetData>
     <row r="1" ht="29" spans="1:18">
       <c r="A1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" ht="29" spans="1:18">
       <c r="A2" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>109</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7472,84 +7475,84 @@
   <sheetData>
     <row r="1" ht="29" spans="1:13">
       <c r="A1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>266</v>
-      </c>
       <c r="H2" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K2" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="M2" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -7577,42 +7580,42 @@
   <sheetData>
     <row r="1" ht="29" spans="1:6">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -7641,84 +7644,84 @@
   <sheetData>
     <row r="1" ht="29" spans="1:13">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="L1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="L2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -7846,24 +7849,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="C1" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -7891,58 +7894,58 @@
   <sheetData>
     <row r="1" ht="29" spans="1:19">
       <c r="A1" s="8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="J1" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q1" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="S1" s="10" t="s">
         <v>92</v>
@@ -7950,120 +7953,120 @@
     </row>
     <row r="2" ht="29" spans="1:19">
       <c r="A2" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>109</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N2" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O2" s="13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" ht="29" spans="1:19">
       <c r="A3" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O3" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P3" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q3" s="13" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="R3" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S3" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -8092,107 +8095,107 @@
   <sheetData>
     <row r="1" ht="29" spans="1:11">
       <c r="A1" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I2" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="K2" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="I3" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="K3" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -8220,30 +8223,30 @@
   <sheetData>
     <row r="1" ht="29" spans="1:4">
       <c r="A1" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -8272,72 +8275,72 @@
   <sheetData>
     <row r="1" ht="29" spans="1:11">
       <c r="A1" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>146</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>158</v>
-      </c>
       <c r="J2" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -8362,37 +8365,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="1" width="23.2727272727273" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -8406,6 +8379,36 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="23.2727272727273" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -8427,21 +8430,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -8471,37 +8474,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" ht="26" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" ht="29" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" ht="29" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" ht="29" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -8526,17 +8529,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
